--- a/cups_decisions.xlsx
+++ b/cups_decisions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\Decision_tree\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924135C6-A46E-4565-A787-64A3CFE9C93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="34140" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,96 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>When possible, serve from glass, bottles or cans.
+The most sustainable cup is no cup!</t>
+  </si>
+  <si>
+    <t>Serve from bottle/glass/cans?</t>
+  </si>
+  <si>
+    <t>I will go for glass, bottle or cans!</t>
+  </si>
+  <si>
+    <t>Glass, bottles or cans are not an option.</t>
+  </si>
+  <si>
+    <t>Prefered option is reusable cups
+Using reusable cups is a sustainable way of serving
+Heineken. When choosing for reusable cups, please
+ensure an effective cup management process is in place.
+See next page for key lookouts on implementing
+reusable cups.
+PP cups are in general used more due to slightly better
+sustainability characteristics and better pricing. PC cups
+are sometimes preferred for premium events due to
+the better look and feel. PP cups are in general slightly
+better recyclable, check with your local plastic recycling
+companies which plastics are accepted for recycling.</t>
+  </si>
+  <si>
+    <t>Tell me more on reusable cups</t>
+  </si>
+  <si>
+    <t>Tell me more on single use cups</t>
+  </si>
+  <si>
+    <t>Reusable or Single use?</t>
+  </si>
+  <si>
+    <t>Reusable cup options</t>
+  </si>
+  <si>
+    <t>Is it possible to use reusable cups? 
+Reusable plastic cups are considered in general more sustainable, but bring higher upfront cost and require an effective cup management process (collection/deposit system to get cups returned, washing of the cups, storage and transport of the cups).  
+Single use cups are the most common for large events. Even when using single use cups, there are still considerations to reduce the sustainability impact.
+Looking for an alternative to plastic cups? Explore alternative materials.</t>
+  </si>
+  <si>
+    <t>Tell me more about alternative materials</t>
+  </si>
+  <si>
+    <t>“What is the sustainable cup for my market or event?”
+The honest answer is: “it depends”. As circumstances are different in each market,a Good Cup in one market can be a Bad Cup in a different market. Heineken® Global Commerce team has developed an assortment of different Heineken® branded cups to suit any event. With the information in this playbook, the most suitable cup type, material and decoration can be selected. The right cup, for the right market, with the right information.</t>
+  </si>
+  <si>
+    <t>Single use cups</t>
+  </si>
+  <si>
+    <t>If reusable cups are not feasible in your market, there are
+different options for single use plastic cups. 
+There are 2 main options: Polypropylene and RPET. Visually and tactile they are very similar, but have a different sustainability characteristic.
+Consideration:
+Both RPET cups and PP cups have their sustainability advantages and disadvantages, and the better option depends on the specific circumstances of the event. RPET is a type of plastic that is made from recycled PET materials, such
+as plastic bottles. Using RPET cups can help reduce waste and conserve resources, as they are made from recycled materials and can be recycled into new products. PP cups, on the other hand, are not made from recycled materials,
+but they are also recyclable. PP cups are also lightweight and have a lower carbon footprint than RPET cups. Not only in production, but also less weight has to be transported.
+To make the right choice:
+To make the right choice, it’s important to consider two key factors.
+The first is the availability of recycling facilities in your local area. While
+all plastics are technically recyclable, local recycling plants might
+not accept all types of plastic. Therefore, you should use the type of
+plastic cup material that has the highest chance of getting recycled
+in your market. Check with local municipalities or waste management
+companies to determine which type of cup is most appropriate.
+If both RPET and PP cups have the same chance of being recycled,
+then your decision should be based on your environmental priorities. If
+reducing CO2 emissions is more important, then you should use PP cups.
+The exact difference in carbon footprint depends on the cup shape/size
+and any transport distances. On the other hand, if reducing the use of
+virgin materials is more important, then you should use RPET cups. By
+using recycled materials, you can help conserve natural resources and
+reduce the environmental impact of your event.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +427,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="104.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>